--- a/evaluation/results/hybrid/pca/LOF/split_5/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/pca/LOF/split_5/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.4859550561797753</v>
+        <v>0.6235955056179775</v>
       </c>
       <c r="C2">
-        <v>0.3076923076923077</v>
+        <v>0.5706638115631691</v>
       </c>
       <c r="D2">
-        <v>0.02247191011235955</v>
+        <v>0.99812734082397</v>
       </c>
       <c r="E2">
-        <v>0.0418848167539267</v>
+        <v>0.726158038147139</v>
       </c>
       <c r="F2">
-        <v>0.02758620689655172</v>
+        <v>0.8680781758957655</v>
       </c>
       <c r="G2">
-        <v>0.02330271118082007</v>
+        <v>0.9701764211705405</v>
       </c>
       <c r="H2">
-        <v>0.4859550561797753</v>
+        <v>0.7825996998134354</v>
       </c>
       <c r="I2">
-        <v>12</v>
+        <v>533</v>
       </c>
       <c r="J2">
-        <v>27</v>
+        <v>401</v>
       </c>
       <c r="K2">
-        <v>507</v>
+        <v>133</v>
       </c>
       <c r="L2">
-        <v>522</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.4927113702623906</v>
+        <v>0.9925373134328358</v>
       </c>
       <c r="C2">
-        <v>0.949438202247191</v>
+        <v>0.249063670411985</v>
       </c>
       <c r="D2">
-        <v>0.6487523992322457</v>
+        <v>0.3982035928143712</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.3076923076923077</v>
+        <v>0.5706638115631691</v>
       </c>
       <c r="C3">
-        <v>0.02247191011235955</v>
+        <v>0.99812734082397</v>
       </c>
       <c r="D3">
-        <v>0.0418848167539267</v>
+        <v>0.726158038147139</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.4859550561797753</v>
+        <v>0.6235955056179775</v>
       </c>
       <c r="C4">
-        <v>0.4859550561797753</v>
+        <v>0.6235955056179775</v>
       </c>
       <c r="D4">
-        <v>0.4859550561797753</v>
+        <v>0.6235955056179775</v>
       </c>
       <c r="E4">
-        <v>0.4859550561797753</v>
+        <v>0.6235955056179775</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.4002018389773492</v>
+        <v>0.7816005624980025</v>
       </c>
       <c r="C5">
-        <v>0.4859550561797753</v>
+        <v>0.6235955056179775</v>
       </c>
       <c r="D5">
-        <v>0.3453186079930862</v>
+        <v>0.562180815480755</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.4002018389773492</v>
+        <v>0.7816005624980026</v>
       </c>
       <c r="C6">
-        <v>0.4859550561797753</v>
+        <v>0.6235955056179775</v>
       </c>
       <c r="D6">
-        <v>0.3453186079930862</v>
+        <v>0.562180815480755</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>507</v>
+        <v>133</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>522</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
